--- a/titlePilotStudy/data/SPA.xlsx
+++ b/titlePilotStudy/data/SPA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roxana\Desktop\CONFERINTE toamna 2019\malaga 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HU-BOX\Seafile\COST\dataTitleStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="126">
   <si>
     <t>Identifier</t>
   </si>
@@ -661,8 +661,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -678,7 +678,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -942,15 +942,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="AB16" sqref="A2:AB16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1168,7 +1168,9 @@
       <c r="O3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="Q3" s="4" t="s">
         <v>84</v>
       </c>
@@ -1184,7 +1186,9 @@
       <c r="U3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="V3" s="4"/>
+      <c r="V3" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="W3" s="4" t="s">
         <v>75</v>
       </c>
@@ -1200,9 +1204,11 @@
       <c r="AA3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AB3" s="5"/>
-    </row>
-    <row r="4" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AB3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -1236,7 +1242,9 @@
       <c r="K4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="M4" s="4" t="s">
         <v>75</v>
       </c>
@@ -1264,7 +1272,9 @@
       <c r="U4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="4"/>
+      <c r="V4" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="W4" s="4" t="s">
         <v>75</v>
       </c>
@@ -1284,7 +1294,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -1318,7 +1328,9 @@
       <c r="K5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="M5" s="4" t="s">
         <v>75</v>
       </c>
@@ -1328,7 +1340,9 @@
       <c r="O5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="Q5" s="4" t="s">
         <v>90</v>
       </c>
@@ -1344,7 +1358,9 @@
       <c r="U5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="V5" s="4"/>
+      <c r="V5" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="W5" s="4" t="s">
         <v>75</v>
       </c>
@@ -1364,7 +1380,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -1398,7 +1414,9 @@
       <c r="K6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="M6" s="4" t="s">
         <v>75</v>
       </c>
@@ -1408,7 +1426,9 @@
       <c r="O6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P6" s="4"/>
+      <c r="P6" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="Q6" s="4" t="s">
         <v>91</v>
       </c>
@@ -1446,7 +1466,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
@@ -1492,8 +1512,12 @@
       <c r="O7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="P7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="R7" s="4" t="s">
         <v>75</v>
       </c>
@@ -1528,7 +1552,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
@@ -1562,7 +1586,9 @@
       <c r="K8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="M8" s="4" t="s">
         <v>75</v>
       </c>
@@ -1572,7 +1598,9 @@
       <c r="O8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="4"/>
+      <c r="P8" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="Q8" s="4" t="s">
         <v>100</v>
       </c>
@@ -1588,7 +1616,9 @@
       <c r="U8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="V8" s="4"/>
+      <c r="V8" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="W8" s="4" t="s">
         <v>75</v>
       </c>
@@ -1604,9 +1634,11 @@
       <c r="AA8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AB8" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -1640,7 +1672,9 @@
       <c r="K9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="M9" s="4" t="s">
         <v>75</v>
       </c>
@@ -1690,7 +1724,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
@@ -1724,7 +1758,9 @@
       <c r="K10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="M10" s="4" t="s">
         <v>75</v>
       </c>
@@ -1734,7 +1770,9 @@
       <c r="O10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="4"/>
+      <c r="P10" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="Q10" s="4" t="s">
         <v>105</v>
       </c>
@@ -1750,7 +1788,9 @@
       <c r="U10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="V10" s="4"/>
+      <c r="V10" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="W10" s="4" t="s">
         <v>75</v>
       </c>
@@ -1766,9 +1806,11 @@
       <c r="AA10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="5"/>
-    </row>
-    <row r="11" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AB10" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
@@ -1798,7 +1840,9 @@
       <c r="K11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="M11" s="4" t="s">
         <v>75</v>
       </c>
@@ -1808,7 +1852,9 @@
       <c r="O11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="Q11" s="4" t="s">
         <v>75</v>
       </c>
@@ -1846,7 +1892,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
@@ -1878,7 +1924,9 @@
       <c r="K12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="M12" s="4" t="s">
         <v>75</v>
       </c>
@@ -1888,7 +1936,9 @@
       <c r="O12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="4"/>
+      <c r="P12" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="Q12" s="4" t="s">
         <v>112</v>
       </c>
@@ -1904,7 +1954,9 @@
       <c r="U12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="V12" s="4"/>
+      <c r="V12" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="W12" s="4" t="s">
         <v>75</v>
       </c>
@@ -1924,7 +1976,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="116" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
@@ -1958,7 +2010,9 @@
       <c r="K13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="M13" s="4" t="s">
         <v>75</v>
       </c>
@@ -2008,7 +2062,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>52</v>
       </c>
@@ -2042,7 +2096,9 @@
       <c r="K14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="M14" s="4" t="s">
         <v>75</v>
       </c>
@@ -2092,7 +2148,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>54</v>
       </c>
@@ -2126,7 +2182,9 @@
       <c r="K15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="M15" s="4" t="s">
         <v>75</v>
       </c>
@@ -2176,7 +2234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
@@ -2210,7 +2268,9 @@
       <c r="K16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="M16" s="4" t="s">
         <v>75</v>
       </c>
@@ -2260,7 +2320,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2280,7 +2340,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2300,7 +2360,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2320,7 +2380,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2340,7 +2400,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2360,7 +2420,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2380,7 +2440,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2400,7 +2460,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2420,7 +2480,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2440,7 +2500,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2460,7 +2520,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2480,7 +2540,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2500,7 +2560,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2520,7 +2580,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2540,7 +2600,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2560,7 +2620,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2580,7 +2640,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="33" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2600,7 +2660,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2620,7 +2680,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2640,7 +2700,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K36" s="2"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2660,7 +2720,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K37" s="2"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2680,7 +2740,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K38" s="2"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2700,7 +2760,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K39" s="2"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2720,7 +2780,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K40" s="2"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2740,7 +2800,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K41" s="2"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2760,7 +2820,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K42" s="2"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2780,7 +2840,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K43" s="2"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2800,7 +2860,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K44" s="2"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2820,7 +2880,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K45" s="2"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2840,7 +2900,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K46" s="2"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2860,7 +2920,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K47" s="2"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2880,7 +2940,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K48" s="2"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2900,7 +2960,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="49" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K49" s="2"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -2920,7 +2980,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K50" s="2"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -2940,7 +3000,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K51" s="2"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -2960,7 +3020,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="52" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K52" s="2"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -2980,7 +3040,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="53" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K53" s="2"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3000,7 +3060,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K54" s="2"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3020,7 +3080,7 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K55" s="2"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3040,7 +3100,7 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="56" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="56" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K56" s="2"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3060,7 +3120,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K57" s="2"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3080,7 +3140,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K58" s="2"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3100,7 +3160,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="59" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K59" s="2"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3120,7 +3180,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="60" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K60" s="2"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3140,7 +3200,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
     </row>
-    <row r="61" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="61" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K61" s="2"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3160,7 +3220,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
     </row>
-    <row r="62" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="62" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K62" s="2"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3180,7 +3240,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
     </row>
-    <row r="63" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="63" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K63" s="2"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3200,7 +3260,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="64" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K64" s="2"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3220,7 +3280,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
     </row>
-    <row r="65" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="65" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K65" s="2"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3240,7 +3300,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
     </row>
-    <row r="66" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="66" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K66" s="2"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3260,7 +3320,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="67" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K67" s="2"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -3280,7 +3340,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
     </row>
-    <row r="68" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="68" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K68" s="2"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -3300,7 +3360,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
     </row>
-    <row r="69" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="69" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K69" s="2"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -3320,7 +3380,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
     </row>
-    <row r="70" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="70" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K70" s="2"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -3340,7 +3400,7 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
     </row>
-    <row r="71" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="71" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -3360,7 +3420,7 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
     </row>
-    <row r="72" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="72" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -3380,7 +3440,7 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
     </row>
-    <row r="73" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="73" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -3400,7 +3460,7 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
     </row>
-    <row r="74" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="74" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -3420,7 +3480,7 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
     </row>
-    <row r="75" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="75" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -3440,7 +3500,7 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
     </row>
-    <row r="76" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="76" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -3460,7 +3520,7 @@
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
     </row>
-    <row r="77" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="77" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -3480,7 +3540,7 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
     </row>
-    <row r="78" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="78" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -3500,7 +3560,7 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
     </row>
-    <row r="79" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="79" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -3520,7 +3580,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
     </row>
-    <row r="80" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="80" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -3540,7 +3600,7 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
     </row>
-    <row r="81" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="81" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
@@ -3560,7 +3620,7 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
     </row>
-    <row r="82" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="82" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -3580,7 +3640,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
     </row>
-    <row r="83" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="83" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -3600,7 +3660,7 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
     </row>
-    <row r="84" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="84" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -3620,7 +3680,7 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
     </row>
-    <row r="85" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="85" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -3640,7 +3700,7 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
     </row>
-    <row r="86" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="86" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -3660,7 +3720,7 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
     </row>
-    <row r="87" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="87" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -3680,7 +3740,7 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
     </row>
-    <row r="88" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="88" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -3700,7 +3760,7 @@
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
     </row>
-    <row r="89" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="89" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -3720,7 +3780,7 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
     </row>
-    <row r="90" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="90" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -3740,7 +3800,7 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
     </row>
-    <row r="91" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="91" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -3760,7 +3820,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
     </row>
-    <row r="92" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="92" spans="11:28" x14ac:dyDescent="0.3">
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>

--- a/titlePilotStudy/data/SPA.xlsx
+++ b/titlePilotStudy/data/SPA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HU-BOX\Seafile\COST\dataTitleStudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HU-GIT\COST\WG1\titlePilotStudy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="94">
   <si>
     <t>Identifier</t>
   </si>
@@ -310,24 +310,6 @@
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">señor </t>
-  </si>
-  <si>
-    <t>señor de bembibre</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>m</t>
   </si>
   <si>
     <r>
@@ -345,15 +327,6 @@
     </r>
   </si>
   <si>
-    <t>mar</t>
-  </si>
-  <si>
-    <t>hija</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
     <r>
       <t>La infanta Doña Teresa</t>
     </r>
@@ -367,36 +340,6 @@
       </rPr>
       <t>: Novela Histórica</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">infanta, doña </t>
-  </si>
-  <si>
-    <t>doña teresa</t>
-  </si>
-  <si>
-    <t>bembibre</t>
-  </si>
-  <si>
-    <t>sab</t>
-  </si>
-  <si>
-    <t>diablo</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>velada, helecho, donativo</t>
-  </si>
-  <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>novela</t>
   </si>
   <si>
     <r>
@@ -421,33 +364,6 @@
     </r>
   </si>
   <si>
-    <t>episodios</t>
-  </si>
-  <si>
-    <t>interpunc</t>
-  </si>
-  <si>
-    <t>ricardo</t>
-  </si>
-  <si>
-    <t>servilón, liberalito</t>
-  </si>
-  <si>
-    <t>indef</t>
-  </si>
-  <si>
-    <t>almas</t>
-  </si>
-  <si>
-    <t>mixed</t>
-  </si>
-  <si>
-    <t>marianela</t>
-  </si>
-  <si>
-    <t>servilón, liberalito, dios</t>
-  </si>
-  <si>
     <r>
       <t>Pepita Jiménez</t>
     </r>
@@ -476,27 +392,6 @@
       </rPr>
       <t>. Novela historica</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">caballeros </t>
-  </si>
-  <si>
-    <t>amor, memorias, reinado</t>
-  </si>
-  <si>
-    <t>caballeros, carlos III</t>
-  </si>
-  <si>
-    <t>pepita jiménez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cortesano </t>
-  </si>
-  <si>
-    <t>memorias, 1815</t>
-  </si>
-  <si>
-    <t>memorias</t>
   </si>
   <si>
     <r>
@@ -521,12 +416,6 @@
     </r>
   </si>
   <si>
-    <t>rey</t>
-  </si>
-  <si>
-    <t>episodios, equipaje</t>
-  </si>
-  <si>
     <r>
       <t>Fortunata y Jacinta</t>
     </r>
@@ -542,29 +431,44 @@
     </r>
   </si>
   <si>
-    <t>casadas</t>
-  </si>
-  <si>
-    <t>fortunata, jacinta</t>
-  </si>
-  <si>
-    <t>josé</t>
-  </si>
-  <si>
-    <t>historias</t>
-  </si>
-  <si>
-    <t>trafalgar</t>
-  </si>
-  <si>
-    <t>memorias, novela</t>
+    <t>placeRole</t>
+  </si>
+  <si>
+    <t>placeSyntax</t>
+  </si>
+  <si>
+    <t>personRole</t>
+  </si>
+  <si>
+    <t>personSyntax</t>
+  </si>
+  <si>
+    <t>personIIRole</t>
+  </si>
+  <si>
+    <t>personIISyntax</t>
+  </si>
+  <si>
+    <t>otherEntityRole</t>
+  </si>
+  <si>
+    <t>otherEntitySyntax</t>
+  </si>
+  <si>
+    <t>otherEntityIIRole</t>
+  </si>
+  <si>
+    <t>otherEntityIISyntax</t>
+  </si>
+  <si>
+    <t>titleFocus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +518,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -636,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -644,20 +555,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -940,1384 +852,1922 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB92"/>
+  <dimension ref="A1:AM92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="AB16" sqref="A2:AB16"/>
+      <selection pane="bottomLeft" activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="29" max="29" width="8.88671875" style="3"/>
+    <col min="30" max="30" width="12.6640625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.21875" style="3" customWidth="1"/>
+    <col min="32" max="32" width="7.88671875" style="3" customWidth="1"/>
+    <col min="33" max="33" width="10.21875" style="3" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="9" style="3" customWidth="1"/>
+    <col min="36" max="39" width="10.88671875" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AC1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>424</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>111968</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>368</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>54494</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="K3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>327</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>77452</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>345</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>54338</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="K5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>26</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>19748</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>267</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>51135</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM7" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>608</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>91062</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="K8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM8" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>247</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>22719</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM9" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>285</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>55015</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="K10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM10" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
         <v>59554</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="K11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM11" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
         <v>56743</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="G12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB12" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM12" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>1830</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>426696</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB13" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM13" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>272</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>51031</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB14" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="K14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM14" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>315</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>60782</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>920</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>395208</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>123</v>
+      <c r="K16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM16" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="11:28" x14ac:dyDescent="0.3">
@@ -3841,21 +4291,27 @@
       <c r="AB92" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K35 O1:O70 AA1:AA70 R1:R70 M1:M70 X1:Y70">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X17:Y70 AB2:AM16 X1:Y1 S2:Z16 L2:L16 N2:N16 P2:Q16 O1:O70 AA1:AA70 R1:R70 M1:M70 K1:K35">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1 T17:T70">
       <formula1>"m,f,d,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1 U17:U70">
       <formula1>"one,more,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 Z17:Z70">
       <formula1>"interpunc,word,mixed,none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W70 N1:N70 S1:S70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S17:S70 W17:W70 S1 N1 W1 N17:N70">
       <formula1>"def,indef,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH17:AH1048576 AJ17:AJ1048576 AL17:AL1048576 AD17:AD1048576 AL1 AJ1 AH1 AF1 AD1 AF17:AF1048576">
+      <formula1>"head,apposition,pregen,postgen,prepmod,adjective,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG17:AG1048576 AI17:AI1048576 AK17:AK1048576 AC17:AC1048576 AK1 AI1 AG1 AE1 AC1 AE17:AE1048576">
+      <formula1>"existence,possessor,possessum,patient,location,agens,attribute,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/titlePilotStudy/data/SPA.xlsx
+++ b/titlePilotStudy/data/SPA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Mis_Documento_Rosario\Proyectos europeos\COST-actions\Titles in ELTeC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HU-GIT\COST\WG1\titlePilotStudy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F449F342-5FD0-4669-BA67-595DD3D01BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="13176" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="13176" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="AV44" authorId="0" shapeId="0" xr:uid="{F353E953-89A3-4584-8AEC-526FB1757CAA}">
+    <comment ref="AV44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="351">
   <si>
     <t>Identifier</t>
   </si>
@@ -1036,9 +1035,6 @@
     <t>high</t>
   </si>
   <si>
-    <t>(T3)</t>
-  </si>
-  <si>
     <t>SPA2011</t>
   </si>
   <si>
@@ -1061,12 +1057,6 @@
   </si>
   <si>
     <t>pepita</t>
-  </si>
-  <si>
-    <t>(T2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (T2)</t>
   </si>
   <si>
     <t>fortunata</t>
@@ -1239,11 +1229,14 @@
   <si>
     <t>T4</t>
   </si>
+  <si>
+    <t xml:space="preserve"> T2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1425,8 +1418,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1703,13 +1696,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1944,7 +1937,7 @@
         <v>1844</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>69</v>
@@ -2092,10 +2085,10 @@
         <v>1852</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>71</v>
@@ -2256,7 +2249,7 @@
         <v>1855</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>186</v>
@@ -2404,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>75</v>
@@ -2441,7 +2434,7 @@
         <v>57</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="V5" s="7" t="s">
         <v>57</v>
@@ -2459,7 +2452,7 @@
         <v>57</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AB5" s="7" t="s">
         <v>57</v>
@@ -2562,7 +2555,7 @@
         <v>1852</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>78</v>
@@ -2710,7 +2703,7 @@
         <v>1859</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>14</v>
@@ -2858,7 +2851,7 @@
         <v>1857</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>194</v>
@@ -3006,7 +2999,7 @@
         <v>1841</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>21</v>
@@ -3151,10 +3144,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>80</v>
@@ -3302,7 +3295,7 @@
         <v>1857</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>218</v>
@@ -4547,7 +4540,7 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
@@ -4648,7 +4641,7 @@
     </row>
     <row r="22" spans="1:66" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B22" s="4">
         <v>567</v>
@@ -4713,7 +4706,7 @@
         <v>179</v>
       </c>
       <c r="AF22" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG22" s="7" t="s">
         <v>163</v>
@@ -4722,7 +4715,7 @@
         <v>155</v>
       </c>
       <c r="AI22" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AJ22" s="7" t="s">
         <v>57</v>
@@ -4731,7 +4724,7 @@
         <v>57</v>
       </c>
       <c r="AL22" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM22" s="7" t="s">
         <v>163</v>
@@ -4740,7 +4733,7 @@
         <v>155</v>
       </c>
       <c r="AO22" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AP22" s="7" t="s">
         <v>163</v>
@@ -4752,7 +4745,7 @@
         <v>155</v>
       </c>
       <c r="AS22" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AT22" s="7" t="s">
         <v>57</v>
@@ -4809,7 +4802,7 @@
         <v>1879</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>97</v>
@@ -4905,7 +4898,7 @@
         <v>1874</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>98</v>
@@ -4936,7 +4929,7 @@
         <v>57</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="V24" s="7" t="s">
         <v>57</v>
@@ -5001,7 +4994,7 @@
         <v>199</v>
       </c>
       <c r="BN24" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:66" ht="100.8" x14ac:dyDescent="0.3">
@@ -5018,10 +5011,10 @@
         <v>9</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>99</v>
@@ -5070,7 +5063,7 @@
         <v>57</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AB25" s="7" t="s">
         <v>155</v>
@@ -5083,7 +5076,7 @@
         <v>179</v>
       </c>
       <c r="AF25" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG25" s="7" t="s">
         <v>163</v>
@@ -5092,7 +5085,7 @@
         <v>57</v>
       </c>
       <c r="AI25" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AJ25" s="7" t="s">
         <v>163</v>
@@ -5143,7 +5136,7 @@
         <v>182</v>
       </c>
       <c r="BN25" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -5163,7 +5156,7 @@
         <v>1887</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>100</v>
@@ -5194,7 +5187,7 @@
         <v>57</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="V26" s="7" t="s">
         <v>57</v>
@@ -5263,7 +5256,7 @@
         <v>168</v>
       </c>
       <c r="BN26" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -5280,10 +5273,10 @@
         <v>9</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>102</v>
@@ -5385,7 +5378,7 @@
         <v>1890</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>105</v>
@@ -5487,7 +5480,7 @@
         <v>1886</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>107</v>
@@ -5505,7 +5498,7 @@
         <v>155</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>155</v>
@@ -5601,7 +5594,7 @@
         <v>1887</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>110</v>
@@ -5632,7 +5625,7 @@
         <v>57</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>155</v>
@@ -5715,7 +5708,7 @@
         <v>1881</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>112</v>
@@ -5743,7 +5736,7 @@
         <v>155</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="U31" s="7" t="s">
         <v>283</v>
@@ -5823,7 +5816,7 @@
         <v>1885</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>115</v>
@@ -5925,7 +5918,7 @@
         <v>1895</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>118</v>
@@ -5943,7 +5936,7 @@
         <v>155</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>155</v>
@@ -6015,7 +6008,7 @@
         <v>199</v>
       </c>
       <c r="BN33" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -6035,7 +6028,7 @@
         <v>1894</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>121</v>
@@ -6077,7 +6070,7 @@
         <v>179</v>
       </c>
       <c r="AF34" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG34" s="7" t="s">
         <v>57</v>
@@ -6143,7 +6136,7 @@
         <v>1898</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>124</v>
@@ -6235,10 +6228,10 @@
         <v>1894</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>126</v>
@@ -6266,7 +6259,7 @@
         <v>57</v>
       </c>
       <c r="U36" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="V36" s="7" t="s">
         <v>57</v>
@@ -6299,7 +6292,7 @@
         <v>179</v>
       </c>
       <c r="AF36" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AG36" s="7" t="s">
         <v>57</v>
@@ -6308,7 +6301,7 @@
         <v>57</v>
       </c>
       <c r="AI36" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AJ36" s="7" t="s">
         <v>163</v>
@@ -6332,7 +6325,7 @@
         <v>155</v>
       </c>
       <c r="AU36" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AV36" s="7" t="s">
         <v>183</v>
@@ -6362,7 +6355,7 @@
         <v>167</v>
       </c>
       <c r="BN36" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:66" ht="100.8" x14ac:dyDescent="0.3">
@@ -6382,7 +6375,7 @@
         <v>1880</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>128</v>
@@ -6400,7 +6393,7 @@
         <v>155</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>155</v>
@@ -6419,7 +6412,7 @@
         <v>57</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="V37" s="7" t="s">
         <v>57</v>
@@ -6449,7 +6442,7 @@
         <v>57</v>
       </c>
       <c r="AI37" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AJ37" s="7" t="s">
         <v>163</v>
@@ -6506,7 +6499,7 @@
         <v>182</v>
       </c>
       <c r="BN37" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -6524,7 +6517,7 @@
         <v>1890</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>131</v>
@@ -6566,7 +6559,7 @@
         <v>171</v>
       </c>
       <c r="AF38" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AG38" s="7" t="s">
         <v>57</v>
@@ -6602,7 +6595,7 @@
         <v>168</v>
       </c>
       <c r="BN38" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -6620,7 +6613,7 @@
         <v>1890</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>153</v>
@@ -6657,7 +6650,7 @@
         <v>57</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="V39" s="7" t="s">
         <v>155</v>
@@ -6714,7 +6707,7 @@
         <v>168</v>
       </c>
       <c r="BN39" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -6734,7 +6727,7 @@
         <v>1885</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>298</v>
@@ -6783,7 +6776,7 @@
         <v>57</v>
       </c>
       <c r="AA40" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AB40" s="7" t="s">
         <v>57</v>
@@ -6792,7 +6785,7 @@
         <v>163</v>
       </c>
       <c r="AD40" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE40" s="7" t="s">
         <v>57</v>
@@ -6854,7 +6847,7 @@
         <v>1910</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>134</v>
@@ -6952,7 +6945,7 @@
         <v>1910</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>137</v>
@@ -7000,7 +6993,7 @@
         <v>171</v>
       </c>
       <c r="AF42" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AG42" s="7" t="s">
         <v>163</v>
@@ -7042,7 +7035,7 @@
         <v>168</v>
       </c>
       <c r="BN42" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -7062,7 +7055,7 @@
         <v>1914</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>140</v>
@@ -7160,10 +7153,10 @@
         <v>1914</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>143</v>
@@ -7178,7 +7171,7 @@
         <v>155</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>155</v>
@@ -7218,7 +7211,7 @@
         <v>179</v>
       </c>
       <c r="AF44" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AG44" s="7" t="s">
         <v>57</v>
@@ -7227,17 +7220,17 @@
         <v>57</v>
       </c>
       <c r="AI44" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL44" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="AJ44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL44" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="AM44" s="7" t="s">
         <v>57</v>
       </c>
@@ -7245,7 +7238,7 @@
         <v>57</v>
       </c>
       <c r="AO44" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AP44" s="7" t="s">
         <v>57</v>
@@ -7328,10 +7321,10 @@
         <v>1903</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>145</v>
@@ -7356,10 +7349,10 @@
         <v>155</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>57</v>
@@ -7380,7 +7373,7 @@
         <v>179</v>
       </c>
       <c r="AF45" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AG45" s="7" t="s">
         <v>57</v>
@@ -7440,7 +7433,7 @@
         <v>182</v>
       </c>
       <c r="BN45" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -7458,7 +7451,7 @@
         <v>1915</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>147</v>
@@ -7556,7 +7549,7 @@
         <v>1909</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>150</v>
@@ -7596,7 +7589,7 @@
         <v>163</v>
       </c>
       <c r="X47" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
@@ -19000,74 +18993,74 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS1:AS1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS1:AS1048576">
       <formula1>"interpunc,word,mixed,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576 Y68:Y1048576 AD2:AD1048576 Z70:AA1048576 Z19 AB66:AC1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576 Y68:Y1048576 AD2:AD1048576 Z70:AA1048576 Z19 AB66:AC1048576">
       <formula1>"m,f,d,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:AG1048576 W1:W1048576 AP2:AP47 N1:N3 R2:R3 AM2:AM47 Q48:Q1048576 AJ2:AJ47 N5:N1048576 R5:R1048576 AC2:AC65" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:AG1048576 W1:W1048576 AP2:AP47 N1:N3 R2:R3 AM2:AM47 Q48:Q1048576 AJ2:AJ47 N5:N1048576 R5:R1048576 AC2:AC65">
       <formula1>"def,indef,no,na"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC1:BC1048576 BE24:BE1048576 BA2:BA1048576 BM21:BM1048576 BJ48:BK1048576 BL673:BL1048576 BG1:BG19 BG21:BG1048576 BI1:BI19 BI21:BI1048576 BK2:BK19 BK21:BK47 BM2:BM19 AZ49:AZ1048576 BE1:BE22 AY1:AY1048576 AW2:AW68" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC1:BC1048576 BE24:BE1048576 BA2:BA1048576 BM21:BM1048576 BJ48:BK1048576 BL673:BL1048576 BG1:BG19 BG21:BG1048576 BI1:BI19 BI21:BI1048576 BK2:BK19 BK21:BK47 BM2:BM19 AZ49:AZ1048576 BE1:BE22 AY1:AY1048576 AW2:AW68">
       <formula1>"head,apposition,pregen,postgen,prepmod,adjective,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB1:BB1048576 BL21:BL672 BD24:BD1048576 BF1:BF19 BF21:BF1048576 BH1:BH19 BH21:BH1048576 BJ2:BJ19 BJ21:BJ47 BL2:BL19 AZ2:AZ48 BD1:BD22 AV2:AV75 AX1:AX1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB1:BB1048576 BL21:BL672 BD24:BD1048576 BF1:BF19 BF21:BF1048576 BH1:BH19 BH21:BH1048576 BJ2:BJ19 BJ21:BJ47 BL2:BL19 AZ2:AZ48 BD1:BD22 AV2:AV75 AX1:AX1048576">
       <formula1>"existence,possessor,possessum,patient,location,agens,attribute,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576">
       <formula1>"one,more,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V324 S1:S324 K1:K243 K279:K324 O2:O243 AT1:AT324 AF2 M5:M324 M1:M3 Q2:Q47 AB2:AB65 AP48:AP324 Y2:Y67 AH1:AH324 AI2 AI48:AJ324 AR1:AR324 AK2:AK324 AL2 AL48:AM324 O279:O324 AN2:AN324 AO49:AO324 AQ2:AQ324" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V324 S1:S324 K1:K243 K279:K324 O2:O243 AT1:AT324 AF2 M5:M324 M1:M3 Q2:Q47 AB2:AB65 AP48:AP324 Y2:Y67 AH1:AH324 AI2 AI48:AJ324 AR1:AR324 AK2:AK324 AL2 AL48:AM324 O279:O324 AN2:AN324 AO49:AO324 AQ2:AQ324">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://distantreading.github.io/ELTeC/spa/SPA1001.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://distantreading.github.io/ELTeC/spa/SPA1002.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://distantreading.github.io/ELTeC/spa/SPA1003.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://distantreading.github.io/ELTeC/spa/SPA1004.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://distantreading.github.io/ELTeC/spa/SPA1005.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://distantreading.github.io/ELTeC/spa/SPA1007.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://distantreading.github.io/ELTeC/spa/SPA1016.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://distantreading.github.io/ELTeC/spa/SPA1021.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://distantreading.github.io/ELTeC/spa/SPA1022.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://distantreading.github.io/ELTeC/spa/SPA1023.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://distantreading.github.io/ELTeC/spa/SPA2001.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://distantreading.github.io/ELTeC/spa/SPA2002.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://distantreading.github.io/ELTeC/spa/SPA2003.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://distantreading.github.io/ELTeC/spa/SPA2004.html" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://distantreading.github.io/ELTeC/spa/SPA2005.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://distantreading.github.io/ELTeC/spa/SPA2006.html" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://distantreading.github.io/ELTeC/spa/SPA2007.html" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://distantreading.github.io/ELTeC/spa/SPA2008.html" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://distantreading.github.io/ELTeC/spa/SPA2009.html" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://distantreading.github.io/ELTeC/spa/SPA2010.html" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://distantreading.github.io/ELTeC/spa/SPA2010.html" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://distantreading.github.io/ELTeC/spa/SPA2016.html" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://distantreading.github.io/ELTeC/spa/SPA2017.html" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://distantreading.github.io/ELTeC/spa/SPA2021.html" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://distantreading.github.io/ELTeC/spa/SPA3001.html" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://distantreading.github.io/ELTeC/spa/SPA3002.html" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://distantreading.github.io/ELTeC/spa/SPA3003.html" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://distantreading.github.io/ELTeC/spa/SPA3004.html" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://distantreading.github.io/ELTeC/spa/SPA3005.html" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://distantreading.github.io/ELTeC/spa/SPA3006.html" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://distantreading.github.io/ELTeC/spa/SPA3007.html" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://distantreading.github.io/ELTeC/spa/SPA3008.html" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://distantreading.github.io/ELTeC/spa/SPA3009.html" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://distantreading.github.io/ELTeC/spa/SPA3010.html" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://distantreading.github.io/ELTeC/spa/SPA3011.html" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://distantreading.github.io/ELTeC/spa/SPA3012.html" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://distantreading.github.io/ELTeC/spa/SPA3013.html" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A41" r:id="rId38" display="https://distantreading.github.io/ELTeC/spa/SPA4001.html" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A42" r:id="rId39" display="https://distantreading.github.io/ELTeC/spa/SPA4002.html" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A43" r:id="rId40" display="https://distantreading.github.io/ELTeC/spa/SPA4003.html" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A44" r:id="rId41" display="https://distantreading.github.io/ELTeC/spa/SPA4004.html" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A45" r:id="rId42" display="https://distantreading.github.io/ELTeC/spa/SPA4005.html" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A46" r:id="rId43" display="https://distantreading.github.io/ELTeC/spa/SPA4006.html" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A47" r:id="rId44" display="https://distantreading.github.io/ELTeC/spa/SPA4007.html" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A39" r:id="rId45" display="https://distantreading.github.io/ELTeC/spa/SPA3014.html" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://distantreading.github.io/ELTeC/spa/SPA1001.html"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://distantreading.github.io/ELTeC/spa/SPA1002.html"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://distantreading.github.io/ELTeC/spa/SPA1003.html"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://distantreading.github.io/ELTeC/spa/SPA1004.html"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://distantreading.github.io/ELTeC/spa/SPA1005.html"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://distantreading.github.io/ELTeC/spa/SPA1007.html"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://distantreading.github.io/ELTeC/spa/SPA1016.html"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://distantreading.github.io/ELTeC/spa/SPA1021.html"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://distantreading.github.io/ELTeC/spa/SPA1022.html"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://distantreading.github.io/ELTeC/spa/SPA1023.html"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://distantreading.github.io/ELTeC/spa/SPA2001.html"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://distantreading.github.io/ELTeC/spa/SPA2002.html"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://distantreading.github.io/ELTeC/spa/SPA2003.html"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://distantreading.github.io/ELTeC/spa/SPA2004.html"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://distantreading.github.io/ELTeC/spa/SPA2005.html"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://distantreading.github.io/ELTeC/spa/SPA2006.html"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://distantreading.github.io/ELTeC/spa/SPA2007.html"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://distantreading.github.io/ELTeC/spa/SPA2008.html"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://distantreading.github.io/ELTeC/spa/SPA2009.html"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://distantreading.github.io/ELTeC/spa/SPA2010.html"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://distantreading.github.io/ELTeC/spa/SPA2010.html"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://distantreading.github.io/ELTeC/spa/SPA2016.html"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://distantreading.github.io/ELTeC/spa/SPA2017.html"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://distantreading.github.io/ELTeC/spa/SPA2021.html"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://distantreading.github.io/ELTeC/spa/SPA3001.html"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://distantreading.github.io/ELTeC/spa/SPA3002.html"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://distantreading.github.io/ELTeC/spa/SPA3003.html"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://distantreading.github.io/ELTeC/spa/SPA3004.html"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://distantreading.github.io/ELTeC/spa/SPA3005.html"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://distantreading.github.io/ELTeC/spa/SPA3006.html"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://distantreading.github.io/ELTeC/spa/SPA3007.html"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://distantreading.github.io/ELTeC/spa/SPA3008.html"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://distantreading.github.io/ELTeC/spa/SPA3009.html"/>
+    <hyperlink ref="A35" r:id="rId34" display="https://distantreading.github.io/ELTeC/spa/SPA3010.html"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://distantreading.github.io/ELTeC/spa/SPA3011.html"/>
+    <hyperlink ref="A37" r:id="rId36" display="https://distantreading.github.io/ELTeC/spa/SPA3012.html"/>
+    <hyperlink ref="A38" r:id="rId37" display="https://distantreading.github.io/ELTeC/spa/SPA3013.html"/>
+    <hyperlink ref="A41" r:id="rId38" display="https://distantreading.github.io/ELTeC/spa/SPA4001.html"/>
+    <hyperlink ref="A42" r:id="rId39" display="https://distantreading.github.io/ELTeC/spa/SPA4002.html"/>
+    <hyperlink ref="A43" r:id="rId40" display="https://distantreading.github.io/ELTeC/spa/SPA4003.html"/>
+    <hyperlink ref="A44" r:id="rId41" display="https://distantreading.github.io/ELTeC/spa/SPA4004.html"/>
+    <hyperlink ref="A45" r:id="rId42" display="https://distantreading.github.io/ELTeC/spa/SPA4005.html"/>
+    <hyperlink ref="A46" r:id="rId43" display="https://distantreading.github.io/ELTeC/spa/SPA4006.html"/>
+    <hyperlink ref="A47" r:id="rId44" display="https://distantreading.github.io/ELTeC/spa/SPA4007.html"/>
+    <hyperlink ref="A39" r:id="rId45" display="https://distantreading.github.io/ELTeC/spa/SPA3014.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId46"/>

--- a/titlePilotStudy/data/SPA.xlsx
+++ b/titlePilotStudy/data/SPA.xlsx
@@ -555,12 +555,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>genreIndicator Role</t>
-  </si>
-  <si>
-    <t>genreIndicator syntax</t>
-  </si>
-  <si>
     <t>possessor</t>
   </si>
   <si>
@@ -921,9 +915,6 @@
     <t>Slot</t>
   </si>
   <si>
-    <t xml:space="preserve">Date </t>
-  </si>
-  <si>
     <t>altamira</t>
   </si>
   <si>
@@ -1231,6 +1222,15 @@
   </si>
   <si>
     <t xml:space="preserve"> T2</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>genreIndicatorRole</t>
+  </si>
+  <si>
+    <t>genreIndicatorsyntax</t>
   </si>
 </sst>
 </file>
@@ -1699,10 +1699,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomLeft" activeCell="AX4" sqref="AX4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1734,10 +1734,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -1764,16 +1764,16 @@
         <v>42</v>
       </c>
       <c r="O1" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>43</v>
@@ -1794,22 +1794,22 @@
         <v>48</v>
       </c>
       <c r="Y1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>49</v>
@@ -1824,31 +1824,31 @@
         <v>52</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AK1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM1" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AN1" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="AM1" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="AN1" s="17" t="s">
-        <v>228</v>
-      </c>
       <c r="AO1" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AP1" s="17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AQ1" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AR1" s="5" t="s">
         <v>53</v>
@@ -1863,10 +1863,10 @@
         <v>56</v>
       </c>
       <c r="AV1" s="15" t="s">
-        <v>165</v>
+        <v>349</v>
       </c>
       <c r="AW1" s="15" t="s">
-        <v>166</v>
+        <v>350</v>
       </c>
       <c r="AX1" s="5" t="s">
         <v>58</v>
@@ -1875,10 +1875,10 @@
         <v>59</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BB1" s="5" t="s">
         <v>60</v>
@@ -1905,16 +1905,16 @@
         <v>67</v>
       </c>
       <c r="BJ1" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BK1" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BL1" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="BM1" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="BN1" s="6" t="s">
         <v>68</v>
@@ -1937,7 +1937,7 @@
         <v>1844</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>69</v>
@@ -1949,7 +1949,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>155</v>
@@ -1971,10 +1971,10 @@
         <v>155</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>57</v>
@@ -2031,17 +2031,17 @@
         <v>57</v>
       </c>
       <c r="AX2" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AY2" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BA2" s="16"/>
       <c r="BB2" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BC2" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BD2" s="7" t="s">
         <v>57</v>
@@ -2085,10 +2085,10 @@
         <v>1852</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>71</v>
@@ -2140,19 +2140,19 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AH3" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AJ3" s="7" t="s">
         <v>57</v>
@@ -2161,7 +2161,7 @@
         <v>57</v>
       </c>
       <c r="AL3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AM3" s="7" t="s">
         <v>57</v>
@@ -2176,7 +2176,7 @@
         <v>155</v>
       </c>
       <c r="AS3" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT3" s="7" t="s">
         <v>155</v>
@@ -2185,16 +2185,16 @@
         <v>156</v>
       </c>
       <c r="AV3" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AW3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY3" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="AX3" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY3" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="BA3" s="16"/>
       <c r="BB3" s="8" t="s">
@@ -2210,22 +2210,22 @@
         <v>57</v>
       </c>
       <c r="BF3" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BG3" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BH3" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BI3" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BJ3" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BK3" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BM3" s="8"/>
       <c r="BN3" s="8" t="s">
@@ -2249,10 +2249,10 @@
         <v>1855</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>73</v>
@@ -2283,10 +2283,10 @@
         <v>155</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V4" s="7" t="s">
         <v>155</v>
@@ -2304,7 +2304,7 @@
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF4" s="7" t="s">
         <v>160</v>
@@ -2328,19 +2328,19 @@
         <v>155</v>
       </c>
       <c r="AS4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT4" s="7" t="s">
         <v>155</v>
       </c>
       <c r="AU4" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AV4" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AW4" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AX4" s="8" t="s">
         <v>57</v>
@@ -2350,10 +2350,10 @@
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BC4" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BD4" s="8" t="s">
         <v>57</v>
@@ -2362,10 +2362,10 @@
         <v>57</v>
       </c>
       <c r="BF4" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BG4" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BH4" s="8" t="s">
         <v>57</v>
@@ -2377,7 +2377,7 @@
       <c r="BK4" s="8"/>
       <c r="BM4" s="8"/>
       <c r="BN4" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>75</v>
@@ -2434,7 +2434,7 @@
         <v>57</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="V5" s="7" t="s">
         <v>57</v>
@@ -2452,7 +2452,7 @@
         <v>57</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AB5" s="7" t="s">
         <v>57</v>
@@ -2462,10 +2462,10 @@
       </c>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="AG5" s="7" t="s">
         <v>57</v>
@@ -2492,13 +2492,13 @@
         <v>155</v>
       </c>
       <c r="AU5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AV5" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AW5" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AX5" s="8" t="s">
         <v>57</v>
@@ -2508,16 +2508,16 @@
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BC5" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BD5" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BE5" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BF5" s="8" t="s">
         <v>57</v>
@@ -2535,7 +2535,7 @@
       <c r="BK5" s="8"/>
       <c r="BM5" s="8"/>
       <c r="BN5" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -2555,7 +2555,7 @@
         <v>1852</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>78</v>
@@ -2567,7 +2567,7 @@
         <v>16</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>57</v>
@@ -2592,7 +2592,7 @@
         <v>57</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>57</v>
@@ -2601,7 +2601,7 @@
         <v>57</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -2610,10 +2610,10 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG6" s="7" t="s">
         <v>57</v>
@@ -2634,19 +2634,19 @@
         <v>155</v>
       </c>
       <c r="AS6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT6" s="7" t="s">
         <v>155</v>
       </c>
       <c r="AU6" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AV6" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AW6" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AX6" s="8" t="s">
         <v>57</v>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BC6" s="8" t="s">
         <v>57</v>
@@ -2668,10 +2668,10 @@
         <v>57</v>
       </c>
       <c r="BF6" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BG6" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BH6" s="8" t="s">
         <v>57</v>
@@ -2683,7 +2683,7 @@
       <c r="BK6" s="8"/>
       <c r="BM6" s="8"/>
       <c r="BN6" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -2703,7 +2703,7 @@
         <v>1859</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>14</v>
@@ -2715,13 +2715,13 @@
         <v>16</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>57</v>
@@ -2740,7 +2740,7 @@
         <v>57</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V7" s="7" t="s">
         <v>155</v>
@@ -2749,7 +2749,7 @@
         <v>163</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
@@ -2797,17 +2797,17 @@
         <v>57</v>
       </c>
       <c r="AX7" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AY7" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BA7" s="16"/>
       <c r="BB7" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BC7" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BD7" s="8" t="s">
         <v>57</v>
@@ -2822,7 +2822,7 @@
         <v>57</v>
       </c>
       <c r="BH7" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BI7" s="8" t="s">
         <v>57</v>
@@ -2831,7 +2831,7 @@
       <c r="BK7" s="8"/>
       <c r="BM7" s="8"/>
       <c r="BN7" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -2851,10 +2851,10 @@
         <v>1857</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>18</v>
@@ -2885,10 +2885,10 @@
         <v>155</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>57</v>
@@ -2897,7 +2897,7 @@
         <v>163</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
@@ -2906,10 +2906,10 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF8" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG8" s="7" t="s">
         <v>57</v>
@@ -2930,7 +2930,7 @@
         <v>155</v>
       </c>
       <c r="AS8" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT8" s="7" t="s">
         <v>155</v>
@@ -2939,10 +2939,10 @@
         <v>156</v>
       </c>
       <c r="AV8" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AW8" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AX8" s="8" t="s">
         <v>57</v>
@@ -2952,10 +2952,10 @@
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BC8" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BD8" s="8" t="s">
         <v>57</v>
@@ -2964,10 +2964,10 @@
         <v>57</v>
       </c>
       <c r="BF8" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BG8" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BH8" s="8" t="s">
         <v>57</v>
@@ -2979,7 +2979,7 @@
       <c r="BK8" s="8"/>
       <c r="BM8" s="8"/>
       <c r="BN8" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -2999,7 +2999,7 @@
         <v>1841</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>21</v>
@@ -3011,7 +3011,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>57</v>
@@ -3036,7 +3036,7 @@
         <v>57</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>57</v>
@@ -3054,10 +3054,10 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF9" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG9" s="7" t="s">
         <v>57</v>
@@ -3078,7 +3078,7 @@
         <v>155</v>
       </c>
       <c r="AS9" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT9" s="7" t="s">
         <v>155</v>
@@ -3087,23 +3087,23 @@
         <v>156</v>
       </c>
       <c r="AV9" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AX9" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AY9" s="8" t="s">
         <v>57</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BC9" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BD9" s="8" t="s">
         <v>57</v>
@@ -3112,10 +3112,10 @@
         <v>57</v>
       </c>
       <c r="BF9" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BG9" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BH9" s="8" t="s">
         <v>57</v>
@@ -3127,7 +3127,7 @@
       <c r="BK9" s="8"/>
       <c r="BM9" s="8"/>
       <c r="BN9" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -3144,10 +3144,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>80</v>
@@ -3184,7 +3184,7 @@
         <v>57</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>155</v>
@@ -3193,7 +3193,7 @@
         <v>57</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
@@ -3248,10 +3248,10 @@
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BD10" s="8" t="s">
         <v>57</v>
@@ -3275,7 +3275,7 @@
       <c r="BK10" s="8"/>
       <c r="BM10" s="8"/>
       <c r="BN10" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:66" ht="86.4" x14ac:dyDescent="0.3">
@@ -3295,10 +3295,10 @@
         <v>1857</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>22</v>
@@ -3307,7 +3307,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>57</v>
@@ -3332,7 +3332,7 @@
         <v>57</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>57</v>
@@ -3350,10 +3350,10 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF11" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG11" s="7" t="s">
         <v>163</v>
@@ -3362,7 +3362,7 @@
         <v>155</v>
       </c>
       <c r="AI11" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AJ11" s="7" t="s">
         <v>163</v>
@@ -3371,7 +3371,7 @@
         <v>57</v>
       </c>
       <c r="AL11" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM11" s="7" t="s">
         <v>163</v>
@@ -3386,7 +3386,7 @@
         <v>155</v>
       </c>
       <c r="AS11" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT11" s="7" t="s">
         <v>155</v>
@@ -3395,50 +3395,50 @@
         <v>156</v>
       </c>
       <c r="AV11" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AW11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB11" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC11" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF11" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG11" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH11" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI11" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="AX11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB11" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC11" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="BD11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF11" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="BG11" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="BH11" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="BI11" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="BJ11" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BK11" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BM11" s="8"/>
       <c r="BN11" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -3458,7 +3458,7 @@
         <v>1877</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>26</v>
@@ -3489,7 +3489,7 @@
         <v>57</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V12" s="7" t="s">
         <v>57</v>
@@ -3530,13 +3530,13 @@
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
       <c r="BB12" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BC12" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN12" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -3556,10 +3556,10 @@
         <v>1867</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>15</v>
@@ -3568,7 +3568,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>57</v>
@@ -3584,10 +3584,10 @@
         <v>155</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>155</v>
@@ -3605,10 +3605,10 @@
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF13" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AG13" s="7" t="s">
         <v>163</v>
@@ -3617,7 +3617,7 @@
         <v>155</v>
       </c>
       <c r="AI13" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AJ13" s="7" t="s">
         <v>57</v>
@@ -3635,40 +3635,40 @@
         <v>155</v>
       </c>
       <c r="AS13" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT13" s="7" t="s">
         <v>155</v>
       </c>
       <c r="AU13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB13" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC13" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG13" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BH13" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI13" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN13" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="AV13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="BB13" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC13" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="BF13" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG13" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="BH13" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI13" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="BN13" s="8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -3688,7 +3688,7 @@
         <v>1873</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>83</v>
@@ -3700,13 +3700,13 @@
         <v>11</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>57</v>
@@ -3758,13 +3758,13 @@
       <c r="AV14" s="7"/>
       <c r="AW14" s="7"/>
       <c r="AX14" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AY14" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN14" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -3784,10 +3784,10 @@
         <v>1875</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>85</v>
@@ -3796,7 +3796,7 @@
         <v>11</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>57</v>
@@ -3825,10 +3825,10 @@
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF15" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG15" s="7" t="s">
         <v>163</v>
@@ -3849,7 +3849,7 @@
         <v>155</v>
       </c>
       <c r="AS15" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT15" s="7" t="s">
         <v>155</v>
@@ -3858,19 +3858,19 @@
         <v>156</v>
       </c>
       <c r="AV15" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AW15" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BF15" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BG15" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN15" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:66" ht="172.8" x14ac:dyDescent="0.3">
@@ -3888,10 +3888,10 @@
         <v>1874</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>85</v>
@@ -3900,7 +3900,7 @@
         <v>11</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>57</v>
@@ -3927,10 +3927,10 @@
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG16" s="7" t="s">
         <v>163</v>
@@ -3939,7 +3939,7 @@
         <v>155</v>
       </c>
       <c r="AI16" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AJ16" s="7" t="s">
         <v>57</v>
@@ -3948,10 +3948,10 @@
         <v>155</v>
       </c>
       <c r="AL16" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM16" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AN16" s="7" t="s">
         <v>155</v>
@@ -3963,40 +3963,40 @@
         <v>155</v>
       </c>
       <c r="AS16" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT16" s="7" t="s">
         <v>155</v>
       </c>
       <c r="AU16" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AV16" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AW16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BI16" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BF16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BG16" s="1" t="s">
+      <c r="BJ16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BK16" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BH16" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BI16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BJ16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BK16" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="BN16" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -4016,7 +4016,7 @@
         <v>1872</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>88</v>
@@ -4047,7 +4047,7 @@
         <v>57</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>57</v>
@@ -4065,10 +4065,10 @@
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF17" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG17" s="7" t="s">
         <v>163</v>
@@ -4094,19 +4094,19 @@
       <c r="AV17" s="7"/>
       <c r="AW17" s="7"/>
       <c r="BB17" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BF17" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BG17" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN17" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -4126,10 +4126,10 @@
         <v>1872</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>89</v>
@@ -4157,7 +4157,7 @@
         <v>57</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>57</v>
@@ -4166,7 +4166,7 @@
         <v>57</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
@@ -4175,10 +4175,10 @@
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF18" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG18" s="7" t="s">
         <v>57</v>
@@ -4187,7 +4187,7 @@
         <v>57</v>
       </c>
       <c r="AI18" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AJ18" s="7" t="s">
         <v>57</v>
@@ -4205,7 +4205,7 @@
         <v>155</v>
       </c>
       <c r="AS18" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT18" s="7" t="s">
         <v>155</v>
@@ -4214,31 +4214,31 @@
         <v>156</v>
       </c>
       <c r="AV18" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AW18" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BB18" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BF18" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BI18" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN18" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:66" ht="86.4" x14ac:dyDescent="0.3">
@@ -4258,10 +4258,10 @@
         <v>1857</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>29</v>
@@ -4270,7 +4270,7 @@
         <v>16</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>57</v>
@@ -4289,13 +4289,13 @@
         <v>57</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="X19" s="7" t="s">
         <v>164</v>
@@ -4307,22 +4307,22 @@
         <v>57</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AB19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AD19" s="7" t="s">
         <v>164</v>
       </c>
       <c r="AE19" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AG19" s="7" t="s">
         <v>57</v>
@@ -4331,7 +4331,7 @@
         <v>155</v>
       </c>
       <c r="AI19" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AJ19" s="7" t="s">
         <v>57</v>
@@ -4349,7 +4349,7 @@
         <v>155</v>
       </c>
       <c r="AS19" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AT19" s="7" t="s">
         <v>155</v>
@@ -4358,25 +4358,25 @@
         <v>156</v>
       </c>
       <c r="AV19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF19" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AW19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="BF19" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="BG19" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BH19" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BI19" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BN19" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -4396,7 +4396,7 @@
         <v>1878</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>31</v>
@@ -4408,7 +4408,7 @@
         <v>11</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>57</v>
@@ -4427,7 +4427,7 @@
         <v>57</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="V20" s="7" t="s">
         <v>57</v>
@@ -4436,7 +4436,7 @@
         <v>57</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
@@ -4468,13 +4468,13 @@
       <c r="AV20" s="7"/>
       <c r="AW20" s="7"/>
       <c r="BB20" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN20" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:66" ht="129.6" x14ac:dyDescent="0.3">
@@ -4494,7 +4494,7 @@
         <v>1874</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>92</v>
@@ -4512,7 +4512,7 @@
         <v>155</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>155</v>
@@ -4524,7 +4524,7 @@
         <v>155</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>57</v>
@@ -4540,7 +4540,7 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
@@ -4549,10 +4549,10 @@
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF21" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AG21" s="7" t="s">
         <v>57</v>
@@ -4561,7 +4561,7 @@
         <v>155</v>
       </c>
       <c r="AI21" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AJ21" s="7" t="s">
         <v>57</v>
@@ -4570,7 +4570,7 @@
         <v>57</v>
       </c>
       <c r="AL21" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AM21" s="7" t="s">
         <v>57</v>
@@ -4579,7 +4579,7 @@
         <v>57</v>
       </c>
       <c r="AO21" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AP21" s="7" t="s">
         <v>163</v>
@@ -4591,7 +4591,7 @@
         <v>155</v>
       </c>
       <c r="AS21" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT21" s="7" t="s">
         <v>155</v>
@@ -4600,48 +4600,48 @@
         <v>157</v>
       </c>
       <c r="AV21" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AW21" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AX21" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AY21" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="BF21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BG21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH21" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BF21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BG21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BH21" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="BI21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BJ21" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BJ21" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="BK21" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BM21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BN21" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:66" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B22" s="4">
         <v>567</v>
@@ -4672,7 +4672,7 @@
         <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>57</v>
@@ -4703,10 +4703,10 @@
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF22" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AG22" s="7" t="s">
         <v>163</v>
@@ -4715,7 +4715,7 @@
         <v>155</v>
       </c>
       <c r="AI22" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AJ22" s="7" t="s">
         <v>57</v>
@@ -4724,7 +4724,7 @@
         <v>57</v>
       </c>
       <c r="AL22" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AM22" s="7" t="s">
         <v>163</v>
@@ -4733,7 +4733,7 @@
         <v>155</v>
       </c>
       <c r="AO22" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AP22" s="7" t="s">
         <v>163</v>
@@ -4745,7 +4745,7 @@
         <v>155</v>
       </c>
       <c r="AS22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AT22" s="7" t="s">
         <v>57</v>
@@ -4754,37 +4754,37 @@
       <c r="AV22" s="7"/>
       <c r="AW22" s="7"/>
       <c r="AY22" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BF22" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BH22" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BI22" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BJ22" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BK22" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BM22" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BN22" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -4802,7 +4802,7 @@
         <v>1879</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>97</v>
@@ -4814,7 +4814,7 @@
         <v>11</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>57</v>
@@ -4830,10 +4830,10 @@
         <v>155</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>57</v>
@@ -4842,7 +4842,7 @@
         <v>57</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
@@ -4874,13 +4874,13 @@
       <c r="AV23" s="7"/>
       <c r="AW23" s="7"/>
       <c r="BB23" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN23" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -4898,7 +4898,7 @@
         <v>1874</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>98</v>
@@ -4910,7 +4910,7 @@
         <v>11</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>57</v>
@@ -4929,7 +4929,7 @@
         <v>57</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="V24" s="7" t="s">
         <v>57</v>
@@ -4938,7 +4938,7 @@
         <v>57</v>
       </c>
       <c r="X24" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y24" s="7" t="s">
         <v>155</v>
@@ -4947,7 +4947,7 @@
         <v>57</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AB24" s="7" t="s">
         <v>57</v>
@@ -4956,7 +4956,7 @@
         <v>57</v>
       </c>
       <c r="AD24" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AE24" s="7" t="s">
         <v>57</v>
@@ -4982,19 +4982,19 @@
       <c r="AV24" s="7"/>
       <c r="AW24" s="7"/>
       <c r="BB24" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BD24" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BE24" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BN24" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:66" ht="100.8" x14ac:dyDescent="0.3">
@@ -5011,10 +5011,10 @@
         <v>9</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>99</v>
@@ -5045,7 +5045,7 @@
         <v>57</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V25" s="7" t="s">
         <v>155</v>
@@ -5063,7 +5063,7 @@
         <v>57</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AB25" s="7" t="s">
         <v>155</v>
@@ -5073,10 +5073,10 @@
         <v>164</v>
       </c>
       <c r="AE25" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF25" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AG25" s="7" t="s">
         <v>163</v>
@@ -5085,7 +5085,7 @@
         <v>57</v>
       </c>
       <c r="AI25" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AJ25" s="7" t="s">
         <v>163</v>
@@ -5103,7 +5103,7 @@
         <v>155</v>
       </c>
       <c r="AS25" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT25" s="7" t="s">
         <v>155</v>
@@ -5112,31 +5112,31 @@
         <v>158</v>
       </c>
       <c r="AV25" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AW25" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BB25" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BF25" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BH25" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BI25" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BN25" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -5156,7 +5156,7 @@
         <v>1887</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>100</v>
@@ -5168,7 +5168,7 @@
         <v>11</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>57</v>
@@ -5187,7 +5187,7 @@
         <v>57</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="V26" s="7" t="s">
         <v>57</v>
@@ -5196,7 +5196,7 @@
         <v>57</v>
       </c>
       <c r="X26" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y26" s="7" t="s">
         <v>155</v>
@@ -5205,7 +5205,7 @@
         <v>57</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AB26" s="7" t="s">
         <v>57</v>
@@ -5214,7 +5214,7 @@
         <v>57</v>
       </c>
       <c r="AD26" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AE26" s="7" t="s">
         <v>57</v>
@@ -5244,19 +5244,19 @@
       <c r="AV26" s="7"/>
       <c r="AW26" s="7"/>
       <c r="BB26" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BD26" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BE26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN26" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -5273,10 +5273,10 @@
         <v>9</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>102</v>
@@ -5288,7 +5288,7 @@
         <v>11</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>57</v>
@@ -5307,7 +5307,7 @@
         <v>57</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>57</v>
@@ -5316,7 +5316,7 @@
         <v>163</v>
       </c>
       <c r="X27" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
@@ -5352,13 +5352,13 @@
       <c r="AV27" s="7"/>
       <c r="AW27" s="7"/>
       <c r="BB27" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN27" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -5378,7 +5378,7 @@
         <v>1890</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>105</v>
@@ -5390,7 +5390,7 @@
         <v>11</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>57</v>
@@ -5409,7 +5409,7 @@
         <v>57</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>155</v>
@@ -5454,13 +5454,13 @@
       <c r="AV28" s="7"/>
       <c r="AW28" s="7"/>
       <c r="BB28" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN28" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -5480,7 +5480,7 @@
         <v>1886</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>107</v>
@@ -5492,13 +5492,13 @@
         <v>16</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>155</v>
@@ -5510,7 +5510,7 @@
         <v>155</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>57</v>
@@ -5562,19 +5562,19 @@
       <c r="AV29" s="7"/>
       <c r="AW29" s="7"/>
       <c r="AX29" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AY29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA29" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AZ29" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA29" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="BN29" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -5594,7 +5594,7 @@
         <v>1887</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>110</v>
@@ -5606,7 +5606,7 @@
         <v>16</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>57</v>
@@ -5625,7 +5625,7 @@
         <v>57</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>155</v>
@@ -5634,7 +5634,7 @@
         <v>163</v>
       </c>
       <c r="X30" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
@@ -5643,10 +5643,10 @@
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF30" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AG30" s="7" t="s">
         <v>57</v>
@@ -5676,19 +5676,19 @@
       <c r="AV30" s="7"/>
       <c r="AW30" s="7"/>
       <c r="BB30" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BF30" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN30" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -5708,7 +5708,7 @@
         <v>1881</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>112</v>
@@ -5720,7 +5720,7 @@
         <v>11</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>57</v>
@@ -5736,10 +5736,10 @@
         <v>155</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>57</v>
@@ -5784,19 +5784,19 @@
       <c r="AV31" s="7"/>
       <c r="AW31" s="7"/>
       <c r="BB31" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BD31" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BE31" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BN31" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -5816,7 +5816,7 @@
         <v>1885</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>115</v>
@@ -5828,7 +5828,7 @@
         <v>11</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>57</v>
@@ -5847,7 +5847,7 @@
         <v>57</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="V32" s="7" t="s">
         <v>57</v>
@@ -5856,7 +5856,7 @@
         <v>57</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
@@ -5892,13 +5892,13 @@
       <c r="AV32" s="7"/>
       <c r="AW32" s="7"/>
       <c r="BB32" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN32" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -5918,7 +5918,7 @@
         <v>1895</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>118</v>
@@ -5930,13 +5930,13 @@
         <v>11</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>155</v>
@@ -5963,10 +5963,10 @@
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF33" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG33" s="7" t="s">
         <v>57</v>
@@ -5996,19 +5996,19 @@
       <c r="AV33" s="7"/>
       <c r="AW33" s="7"/>
       <c r="AX33" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AY33" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BF33" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BN33" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -6028,7 +6028,7 @@
         <v>1894</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>121</v>
@@ -6040,7 +6040,7 @@
         <v>11</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>57</v>
@@ -6067,10 +6067,10 @@
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF34" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AG34" s="7" t="s">
         <v>57</v>
@@ -6079,7 +6079,7 @@
         <v>57</v>
       </c>
       <c r="AI34" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AJ34" s="7" t="s">
         <v>57</v>
@@ -6097,7 +6097,7 @@
         <v>57</v>
       </c>
       <c r="AS34" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AT34" s="7" t="s">
         <v>57</v>
@@ -6106,19 +6106,19 @@
       <c r="AV34" s="7"/>
       <c r="AW34" s="7"/>
       <c r="BF34" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BH34" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BI34" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BN34" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -6136,7 +6136,7 @@
         <v>1898</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>124</v>
@@ -6148,13 +6148,13 @@
         <v>11</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>57</v>
@@ -6202,13 +6202,13 @@
       <c r="AV35" s="7"/>
       <c r="AW35" s="7"/>
       <c r="AX35" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AY35" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN35" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -6228,10 +6228,10 @@
         <v>1894</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>126</v>
@@ -6259,7 +6259,7 @@
         <v>57</v>
       </c>
       <c r="U36" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="V36" s="7" t="s">
         <v>57</v>
@@ -6277,7 +6277,7 @@
         <v>57</v>
       </c>
       <c r="AA36" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AB36" s="7" t="s">
         <v>57</v>
@@ -6289,10 +6289,10 @@
         <v>164</v>
       </c>
       <c r="AE36" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF36" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AG36" s="7" t="s">
         <v>57</v>
@@ -6301,7 +6301,7 @@
         <v>57</v>
       </c>
       <c r="AI36" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AJ36" s="7" t="s">
         <v>163</v>
@@ -6319,43 +6319,43 @@
         <v>155</v>
       </c>
       <c r="AS36" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT36" s="7" t="s">
         <v>155</v>
       </c>
       <c r="AU36" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AV36" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AW36" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BB36" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BC36" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BD36" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BE36" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BF36" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BH36" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BN36" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:66" ht="100.8" x14ac:dyDescent="0.3">
@@ -6375,7 +6375,7 @@
         <v>1880</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>128</v>
@@ -6393,7 +6393,7 @@
         <v>155</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>155</v>
@@ -6412,7 +6412,7 @@
         <v>57</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="V37" s="7" t="s">
         <v>57</v>
@@ -6430,10 +6430,10 @@
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF37" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG37" s="7" t="s">
         <v>57</v>
@@ -6442,7 +6442,7 @@
         <v>57</v>
       </c>
       <c r="AI37" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AJ37" s="7" t="s">
         <v>163</v>
@@ -6460,7 +6460,7 @@
         <v>155</v>
       </c>
       <c r="AS37" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT37" s="7" t="s">
         <v>155</v>
@@ -6469,37 +6469,37 @@
         <v>159</v>
       </c>
       <c r="AV37" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AW37" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AX37" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AY37" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="BB37" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC37" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF37" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BB37" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="BC37" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="BF37" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="BG37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH37" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BH37" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="BI37" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BN37" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -6517,7 +6517,7 @@
         <v>1890</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>131</v>
@@ -6529,7 +6529,7 @@
         <v>11</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>57</v>
@@ -6556,10 +6556,10 @@
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF38" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AG38" s="7" t="s">
         <v>57</v>
@@ -6589,13 +6589,13 @@
       <c r="AV38" s="7"/>
       <c r="AW38" s="7"/>
       <c r="BF38" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN38" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -6613,7 +6613,7 @@
         <v>1890</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>153</v>
@@ -6631,7 +6631,7 @@
         <v>155</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>155</v>
@@ -6650,7 +6650,7 @@
         <v>57</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="V39" s="7" t="s">
         <v>155</v>
@@ -6695,24 +6695,24 @@
       <c r="AV39" s="7"/>
       <c r="AW39" s="7"/>
       <c r="AX39" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AY39" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BB39" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BC39" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN39" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B40" s="21">
         <v>224</v>
@@ -6727,19 +6727,19 @@
         <v>1885</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>57</v>
@@ -6758,7 +6758,7 @@
         <v>57</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="V40" s="7" t="s">
         <v>155</v>
@@ -6767,7 +6767,7 @@
         <v>163</v>
       </c>
       <c r="X40" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y40" s="7" t="s">
         <v>155</v>
@@ -6776,7 +6776,7 @@
         <v>57</v>
       </c>
       <c r="AA40" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AB40" s="7" t="s">
         <v>57</v>
@@ -6785,7 +6785,7 @@
         <v>163</v>
       </c>
       <c r="AD40" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AE40" s="7" t="s">
         <v>57</v>
@@ -6815,19 +6815,19 @@
       <c r="AV40" s="7"/>
       <c r="AW40" s="7"/>
       <c r="BB40" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BC40" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BD40" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BE40" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BN40" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:66" ht="28.8" x14ac:dyDescent="0.3">
@@ -6847,7 +6847,7 @@
         <v>1910</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>134</v>
@@ -6889,7 +6889,7 @@
         <v>57</v>
       </c>
       <c r="AF41" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AG41" s="7" t="s">
         <v>57</v>
@@ -6919,13 +6919,13 @@
       <c r="AV41" s="7"/>
       <c r="AW41" s="7"/>
       <c r="BF41" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BN41" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -6945,7 +6945,7 @@
         <v>1910</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>137</v>
@@ -6957,13 +6957,13 @@
         <v>11</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>57</v>
@@ -6990,10 +6990,10 @@
       <c r="AC42" s="7"/>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF42" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG42" s="7" t="s">
         <v>163</v>
@@ -7023,19 +7023,19 @@
       <c r="AV42" s="7"/>
       <c r="AW42" s="7"/>
       <c r="AX42" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AY42" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BF42" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BG42" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN42" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -7055,7 +7055,7 @@
         <v>1914</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>140</v>
@@ -7067,7 +7067,7 @@
         <v>11</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>57</v>
@@ -7094,10 +7094,10 @@
       <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
       <c r="AE43" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF43" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AG43" s="7" t="s">
         <v>57</v>
@@ -7127,13 +7127,13 @@
       <c r="AV43" s="7"/>
       <c r="AW43" s="7"/>
       <c r="BF43" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BG43" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN43" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:66" ht="129.6" x14ac:dyDescent="0.3">
@@ -7153,10 +7153,10 @@
         <v>1914</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>143</v>
@@ -7165,19 +7165,19 @@
         <v>11</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>155</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
@@ -7190,7 +7190,7 @@
         <v>57</v>
       </c>
       <c r="U44" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="V44" s="7" t="s">
         <v>57</v>
@@ -7208,10 +7208,10 @@
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF44" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AG44" s="7" t="s">
         <v>57</v>
@@ -7220,17 +7220,17 @@
         <v>57</v>
       </c>
       <c r="AI44" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL44" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="AJ44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL44" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="AM44" s="7" t="s">
         <v>57</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>57</v>
       </c>
       <c r="AO44" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AP44" s="7" t="s">
         <v>57</v>
@@ -7250,58 +7250,58 @@
         <v>155</v>
       </c>
       <c r="AS44" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AT44" s="7" t="s">
         <v>155</v>
       </c>
       <c r="AU44" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AV44" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AW44" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AX44" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AY44" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BB44" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BC44" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BF44" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BG44" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BH44" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BI44" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BJ44" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BK44" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BL44" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BM44" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BN44" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:66" ht="86.4" x14ac:dyDescent="0.3">
@@ -7321,10 +7321,10 @@
         <v>1903</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>145</v>
@@ -7333,7 +7333,7 @@
         <v>11</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>57</v>
@@ -7349,10 +7349,10 @@
         <v>155</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>57</v>
@@ -7370,10 +7370,10 @@
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF45" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG45" s="7" t="s">
         <v>57</v>
@@ -7382,7 +7382,7 @@
         <v>155</v>
       </c>
       <c r="AI45" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ45" s="7" t="s">
         <v>57</v>
@@ -7409,31 +7409,31 @@
         <v>158</v>
       </c>
       <c r="AV45" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AW45" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BB45" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BC45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BF45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH45" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BF45" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG45" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BH45" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="BI45" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BN45" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -7451,7 +7451,7 @@
         <v>1915</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>147</v>
@@ -7490,10 +7490,10 @@
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF46" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AG46" s="7" t="s">
         <v>163</v>
@@ -7523,13 +7523,13 @@
       <c r="AV46" s="7"/>
       <c r="AW46" s="7"/>
       <c r="BF46" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BG46" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN46" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:66" ht="86.4" x14ac:dyDescent="0.3">
@@ -7549,7 +7549,7 @@
         <v>1909</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>150</v>
@@ -7580,7 +7580,7 @@
         <v>57</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="V47" s="7" t="s">
         <v>57</v>
@@ -7589,7 +7589,7 @@
         <v>163</v>
       </c>
       <c r="X47" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
@@ -7625,13 +7625,13 @@
       <c r="AV47" s="7"/>
       <c r="AW47" s="7"/>
       <c r="BB47" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BC47" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BN47" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.3">

--- a/titlePilotStudy/data/SPA.xlsx
+++ b/titlePilotStudy/data/SPA.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="350">
   <si>
     <t>Identifier</t>
   </si>
@@ -340,9 +340,6 @@
   </si>
   <si>
     <t>Martínez de Velasco, Eusebio (1836-1893)</t>
-  </si>
-  <si>
-    <t>1863 (T2)</t>
   </si>
   <si>
     <t>La corona de fuego o Los subterraneos de las torres de Altamira</t>
@@ -1699,10 +1696,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="AX4" sqref="AX4"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1734,10 +1731,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -1764,16 +1761,16 @@
         <v>42</v>
       </c>
       <c r="O1" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>43</v>
@@ -1794,22 +1791,22 @@
         <v>48</v>
       </c>
       <c r="Y1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>49</v>
@@ -1824,31 +1821,31 @@
         <v>52</v>
       </c>
       <c r="AI1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AJ1" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="AK1" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL1" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AN1" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="AN1" s="17" t="s">
-        <v>226</v>
-      </c>
       <c r="AO1" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP1" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="AQ1" s="17" t="s">
-        <v>269</v>
       </c>
       <c r="AR1" s="5" t="s">
         <v>53</v>
@@ -1863,10 +1860,10 @@
         <v>56</v>
       </c>
       <c r="AV1" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="AW1" s="15" t="s">
         <v>349</v>
-      </c>
-      <c r="AW1" s="15" t="s">
-        <v>350</v>
       </c>
       <c r="AX1" s="5" t="s">
         <v>58</v>
@@ -1875,10 +1872,10 @@
         <v>59</v>
       </c>
       <c r="AZ1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA1" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="BB1" s="5" t="s">
         <v>60</v>
@@ -1905,16 +1902,16 @@
         <v>67</v>
       </c>
       <c r="BJ1" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="BK1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="BK1" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="BL1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BM1" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="BN1" s="6" t="s">
         <v>68</v>
@@ -1937,7 +1934,7 @@
         <v>1844</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>69</v>
@@ -1949,13 +1946,13 @@
         <v>11</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>57</v>
@@ -1968,22 +1965,22 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>57</v>
       </c>
       <c r="W2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X2" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -2031,17 +2028,17 @@
         <v>57</v>
       </c>
       <c r="AX2" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AY2" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA2" s="16"/>
       <c r="BB2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC2" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="BC2" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="BD2" s="7" t="s">
         <v>57</v>
@@ -2065,7 +2062,7 @@
       <c r="BK2" s="7"/>
       <c r="BM2" s="7"/>
       <c r="BN2" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -2085,10 +2082,10 @@
         <v>1852</v>
       </c>
       <c r="F3" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>71</v>
@@ -2100,16 +2097,16 @@
         <v>19</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -2140,19 +2137,19 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH3" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AJ3" s="7" t="s">
         <v>57</v>
@@ -2161,7 +2158,7 @@
         <v>57</v>
       </c>
       <c r="AL3" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM3" s="7" t="s">
         <v>57</v>
@@ -2173,28 +2170,28 @@
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AS3" s="7" t="s">
+      <c r="AV3" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT3" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU3" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV3" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="AW3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="AX3" s="8" t="s">
+      <c r="AY3" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="AY3" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="BA3" s="16"/>
       <c r="BB3" s="8" t="s">
@@ -2210,26 +2207,26 @@
         <v>57</v>
       </c>
       <c r="BF3" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BG3" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BH3" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BI3" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BJ3" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BK3" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BM3" s="8"/>
       <c r="BN3" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="86.4" x14ac:dyDescent="0.3">
@@ -2249,10 +2246,10 @@
         <v>1855</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>73</v>
@@ -2280,22 +2277,22 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="V4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W4" s="7" t="s">
         <v>57</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -2304,16 +2301,16 @@
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF4" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
@@ -2325,22 +2322,22 @@
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AV4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU4" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="AV4" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="AW4" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AX4" s="8" t="s">
         <v>57</v>
@@ -2350,11 +2347,11 @@
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC4" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="BC4" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="BD4" s="8" t="s">
         <v>57</v>
       </c>
@@ -2362,10 +2359,10 @@
         <v>57</v>
       </c>
       <c r="BF4" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BG4" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BH4" s="8" t="s">
         <v>57</v>
@@ -2377,7 +2374,7 @@
       <c r="BK4" s="8"/>
       <c r="BM4" s="8"/>
       <c r="BN4" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -2397,7 +2394,7 @@
         <v>1844</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>75</v>
@@ -2428,31 +2425,31 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U5" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA5" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="AB5" s="7" t="s">
         <v>57</v>
@@ -2462,10 +2459,10 @@
       </c>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG5" s="7" t="s">
         <v>57</v>
@@ -2483,22 +2480,22 @@
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS5" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AT5" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AU5" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AV5" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AW5" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX5" s="8" t="s">
         <v>57</v>
@@ -2508,16 +2505,16 @@
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC5" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="BC5" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="BD5" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BE5" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BF5" s="8" t="s">
         <v>57</v>
@@ -2535,7 +2532,7 @@
       <c r="BK5" s="8"/>
       <c r="BM5" s="8"/>
       <c r="BN5" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -2555,7 +2552,7 @@
         <v>1852</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>78</v>
@@ -2567,7 +2564,7 @@
         <v>16</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>57</v>
@@ -2586,13 +2583,13 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>57</v>
@@ -2601,7 +2598,7 @@
         <v>57</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -2610,16 +2607,16 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG6" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AH6" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
@@ -2631,22 +2628,22 @@
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV6" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT6" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU6" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV6" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="AW6" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AX6" s="8" t="s">
         <v>57</v>
@@ -2656,22 +2653,22 @@
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="BC6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG6" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="BC6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BG6" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="BH6" s="8" t="s">
         <v>57</v>
@@ -2683,7 +2680,7 @@
       <c r="BK6" s="8"/>
       <c r="BM6" s="8"/>
       <c r="BN6" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
@@ -2703,7 +2700,7 @@
         <v>1859</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>14</v>
@@ -2715,13 +2712,13 @@
         <v>16</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>57</v>
@@ -2734,22 +2731,22 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
@@ -2797,32 +2794,32 @@
         <v>57</v>
       </c>
       <c r="AX7" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AY7" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BA7" s="16"/>
       <c r="BB7" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="BC7" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH7" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="BC7" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="BD7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH7" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="BI7" s="8" t="s">
         <v>57</v>
@@ -2831,7 +2828,7 @@
       <c r="BK7" s="8"/>
       <c r="BM7" s="8"/>
       <c r="BN7" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -2851,10 +2848,10 @@
         <v>1857</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>18</v>
@@ -2882,22 +2879,22 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>57</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
@@ -2906,10 +2903,10 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF8" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG8" s="7" t="s">
         <v>57</v>
@@ -2927,22 +2924,22 @@
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AS8" s="7" t="s">
+      <c r="AV8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV8" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="AW8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AX8" s="8" t="s">
         <v>57</v>
@@ -2952,10 +2949,10 @@
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BC8" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BD8" s="8" t="s">
         <v>57</v>
@@ -2964,10 +2961,10 @@
         <v>57</v>
       </c>
       <c r="BF8" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BG8" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BH8" s="8" t="s">
         <v>57</v>
@@ -2979,7 +2976,7 @@
       <c r="BK8" s="8"/>
       <c r="BM8" s="8"/>
       <c r="BN8" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -2999,7 +2996,7 @@
         <v>1841</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>21</v>
@@ -3011,7 +3008,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>57</v>
@@ -3030,13 +3027,13 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>57</v>
@@ -3045,7 +3042,7 @@
         <v>57</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
@@ -3054,10 +3051,10 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF9" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG9" s="7" t="s">
         <v>57</v>
@@ -3075,35 +3072,35 @@
       <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
       <c r="AR9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS9" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU9" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AS9" s="7" t="s">
+      <c r="AV9" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT9" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU9" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV9" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="AW9" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AX9" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AY9" s="8" t="s">
         <v>57</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BC9" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BD9" s="8" t="s">
         <v>57</v>
@@ -3112,10 +3109,10 @@
         <v>57</v>
       </c>
       <c r="BF9" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BG9" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BH9" s="8" t="s">
         <v>57</v>
@@ -3127,7 +3124,7 @@
       <c r="BK9" s="8"/>
       <c r="BM9" s="8"/>
       <c r="BN9" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -3144,10 +3141,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>80</v>
@@ -3178,22 +3175,22 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
@@ -3248,10 +3245,10 @@
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BD10" s="8" t="s">
         <v>57</v>
@@ -3275,7 +3272,7 @@
       <c r="BK10" s="8"/>
       <c r="BM10" s="8"/>
       <c r="BN10" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:66" ht="86.4" x14ac:dyDescent="0.3">
@@ -3295,10 +3292,10 @@
         <v>1857</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>22</v>
@@ -3307,7 +3304,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>57</v>
@@ -3326,22 +3323,22 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>57</v>
       </c>
       <c r="W11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X11" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
@@ -3350,55 +3347,55 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF11" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG11" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AH11" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL11" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="AJ11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL11" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="AM11" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
       <c r="AR11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AS11" s="7" t="s">
+      <c r="AV11" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV11" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="AW11" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AX11" s="8" t="s">
         <v>57</v>
@@ -3407,11 +3404,11 @@
         <v>57</v>
       </c>
       <c r="BB11" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC11" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="BC11" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="BD11" s="8" t="s">
         <v>57</v>
       </c>
@@ -3419,26 +3416,26 @@
         <v>57</v>
       </c>
       <c r="BF11" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BG11" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BH11" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BI11" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BJ11" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BK11" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BM11" s="8"/>
       <c r="BN11" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -3458,7 +3455,7 @@
         <v>1877</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>26</v>
@@ -3483,13 +3480,13 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T12" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V12" s="7" t="s">
         <v>57</v>
@@ -3498,7 +3495,7 @@
         <v>57</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
@@ -3530,13 +3527,13 @@
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
       <c r="BB12" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BC12" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN12" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -3556,10 +3553,10 @@
         <v>1867</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>15</v>
@@ -3568,7 +3565,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>57</v>
@@ -3581,22 +3578,22 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X13" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
@@ -3605,19 +3602,19 @@
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF13" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG13" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AH13" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI13" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ13" s="7" t="s">
         <v>57</v>
@@ -3632,43 +3629,43 @@
       <c r="AP13" s="7"/>
       <c r="AQ13" s="7"/>
       <c r="AR13" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU13" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="AV13" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="AW13" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BB13" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC13" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="BC13" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="BF13" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG13" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="BH13" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BG13" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="BH13" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="BI13" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BN13" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -3688,7 +3685,7 @@
         <v>1873</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>83</v>
@@ -3700,13 +3697,13 @@
         <v>11</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>57</v>
@@ -3758,13 +3755,13 @@
       <c r="AV14" s="7"/>
       <c r="AW14" s="7"/>
       <c r="AX14" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY14" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN14" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -3784,10 +3781,10 @@
         <v>1875</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>85</v>
@@ -3796,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>57</v>
@@ -3825,13 +3822,13 @@
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF15" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG15" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AH15" s="7" t="s">
         <v>57</v>
@@ -3846,31 +3843,31 @@
       <c r="AP15" s="7"/>
       <c r="AQ15" s="7"/>
       <c r="AR15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS15" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU15" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AS15" s="7" t="s">
+      <c r="AV15" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT15" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU15" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV15" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="AW15" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BF15" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BG15" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN15" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:66" ht="172.8" x14ac:dyDescent="0.3">
@@ -3888,10 +3885,10 @@
         <v>1874</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>85</v>
@@ -3900,7 +3897,7 @@
         <v>11</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>57</v>
@@ -3927,76 +3924,76 @@
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL16" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="AG16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI16" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="AJ16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL16" s="7" t="s">
+      <c r="AM16" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="AM16" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="AN16" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AV16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BG16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BI16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AT16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU16" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="AV16" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AW16" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BF16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG16" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BH16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BI16" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ16" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="BK16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BN16" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -4016,7 +4013,7 @@
         <v>1872</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>88</v>
@@ -4041,22 +4038,22 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>57</v>
       </c>
       <c r="W17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
@@ -4065,16 +4062,16 @@
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF17" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AH17" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
@@ -4094,19 +4091,19 @@
       <c r="AV17" s="7"/>
       <c r="AW17" s="7"/>
       <c r="BB17" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BF17" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BG17" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN17" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -4126,10 +4123,10 @@
         <v>1872</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>89</v>
@@ -4151,13 +4148,13 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T18" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>57</v>
@@ -4166,7 +4163,7 @@
         <v>57</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
@@ -4175,10 +4172,10 @@
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF18" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG18" s="7" t="s">
         <v>57</v>
@@ -4187,7 +4184,7 @@
         <v>57</v>
       </c>
       <c r="AI18" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ18" s="7" t="s">
         <v>57</v>
@@ -4202,43 +4199,43 @@
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU18" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AS18" s="7" t="s">
+      <c r="AV18" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT18" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU18" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV18" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="AW18" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BB18" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BF18" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BI18" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN18" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:66" ht="86.4" x14ac:dyDescent="0.3">
@@ -4258,10 +4255,10 @@
         <v>1857</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>29</v>
@@ -4270,7 +4267,7 @@
         <v>16</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>57</v>
@@ -4283,55 +4280,55 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AA19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI19" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="AB19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF19" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI19" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="AJ19" s="7" t="s">
         <v>57</v>
@@ -4346,37 +4343,37 @@
       <c r="AP19" s="7"/>
       <c r="AQ19" s="7"/>
       <c r="AR19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="AT19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AS19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="AT19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU19" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="AV19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF19" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG19" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AW19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BF19" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG19" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="BH19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BI19" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="BN19" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -4396,7 +4393,7 @@
         <v>1878</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>31</v>
@@ -4408,7 +4405,7 @@
         <v>11</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>57</v>
@@ -4421,13 +4418,13 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T20" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V20" s="7" t="s">
         <v>57</v>
@@ -4436,7 +4433,7 @@
         <v>57</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
@@ -4468,13 +4465,13 @@
       <c r="AV20" s="7"/>
       <c r="AW20" s="7"/>
       <c r="BB20" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN20" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:66" ht="129.6" x14ac:dyDescent="0.3">
@@ -4494,7 +4491,7 @@
         <v>1874</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>92</v>
@@ -4509,22 +4506,22 @@
         <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>57</v>
@@ -4540,7 +4537,7 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
@@ -4549,99 +4546,99 @@
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL21" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO21" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP21" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS21" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AF21" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI21" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL21" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="AM21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO21" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP21" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AR21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS21" s="7" t="s">
+      <c r="AT21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV21" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AW21" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX21" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY21" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BG21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BI21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BJ21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BK21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BL21" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AT21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AV21" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW21" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AX21" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY21" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="BF21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BG21" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BH21" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BI21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BJ21" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK21" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BL21" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="BM21" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BN21" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:66" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B22" s="4">
         <v>567</v>
@@ -4652,15 +4649,17 @@
       <c r="D22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="20">
+        <v>1863</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>11</v>
@@ -4669,10 +4668,10 @@
         <v>19</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>57</v>
@@ -4703,49 +4702,49 @@
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF22" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI22" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="AG22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI22" s="7" t="s">
+      <c r="AJ22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO22" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="AJ22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL22" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="AM22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO22" s="7" t="s">
+      <c r="AP22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS22" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="AP22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AR22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS22" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="AT22" s="7" t="s">
         <v>57</v>
@@ -4754,37 +4753,37 @@
       <c r="AV22" s="7"/>
       <c r="AW22" s="7"/>
       <c r="AY22" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BF22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BG22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BI22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BK22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BL22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM22" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BG22" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BH22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BI22" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BJ22" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BK22" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BL22" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BM22" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="BN22" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -4802,10 +4801,10 @@
         <v>1879</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>34</v>
@@ -4814,7 +4813,7 @@
         <v>11</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>57</v>
@@ -4827,13 +4826,13 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>57</v>
@@ -4842,7 +4841,7 @@
         <v>57</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
@@ -4874,13 +4873,13 @@
       <c r="AV23" s="7"/>
       <c r="AW23" s="7"/>
       <c r="BB23" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN23" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:66" ht="72" x14ac:dyDescent="0.3">
@@ -4898,10 +4897,10 @@
         <v>1874</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>34</v>
@@ -4910,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>57</v>
@@ -4923,13 +4922,13 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T24" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V24" s="7" t="s">
         <v>57</v>
@@ -4938,16 +4937,16 @@
         <v>57</v>
       </c>
       <c r="X24" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z24" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB24" s="7" t="s">
         <v>57</v>
@@ -4956,7 +4955,7 @@
         <v>57</v>
       </c>
       <c r="AD24" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE24" s="7" t="s">
         <v>57</v>
@@ -4982,19 +4981,19 @@
       <c r="AV24" s="7"/>
       <c r="AW24" s="7"/>
       <c r="BB24" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BD24" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BE24" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BN24" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:66" ht="100.8" x14ac:dyDescent="0.3">
@@ -5011,13 +5010,13 @@
         <v>9</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>37</v>
@@ -5039,59 +5038,59 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="X25" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="Y25" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z25" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AB25" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AE25" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI25" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="AG25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI25" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="AJ25" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK25" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
@@ -5100,43 +5099,43 @@
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
       <c r="AR25" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS25" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AT25" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AU25" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AV25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AW25" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="BB25" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="BF25" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BH25" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BI25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BN25" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
@@ -5156,10 +5155,10 @@
         <v>1887</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>32</v>
@@ -5168,7 +5167,7 @@
         <v>11</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>57</v>
@@ -5181,13 +5180,13 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T26" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V26" s="7" t="s">
         <v>57</v>
@@ -5196,16 +5195,16 @@
         <v>57</v>
       </c>
       <c r="X26" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y26" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z26" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB26" s="7" t="s">
         <v>57</v>
@@ -5214,7 +5213,7 @@
         <v>57</v>
       </c>
       <c r="AD26" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE26" s="7" t="s">
         <v>57</v>
@@ -5244,24 +5243,24 @@
       <c r="AV26" s="7"/>
       <c r="AW26" s="7"/>
       <c r="BB26" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BD26" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BE26" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN26" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="4">
         <v>1115</v>
@@ -5273,22 +5272,22 @@
         <v>9</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>57</v>
@@ -5301,22 +5300,22 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>57</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X27" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
@@ -5352,18 +5351,18 @@
       <c r="AV27" s="7"/>
       <c r="AW27" s="7"/>
       <c r="BB27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BC27" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="BN27" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" s="4">
         <v>436</v>
@@ -5378,19 +5377,19 @@
         <v>1890</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>57</v>
@@ -5403,22 +5402,22 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T28" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="X28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
@@ -5454,18 +5453,18 @@
       <c r="AV28" s="7"/>
       <c r="AW28" s="7"/>
       <c r="BB28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN28" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="4">
         <v>251</v>
@@ -5480,37 +5479,37 @@
         <v>1886</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>57</v>
@@ -5562,24 +5561,24 @@
       <c r="AV29" s="7"/>
       <c r="AW29" s="7"/>
       <c r="AX29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA29" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AY29" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AZ29" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BA29" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="BN29" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="4">
         <v>585</v>
@@ -5594,19 +5593,19 @@
         <v>1887</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>57</v>
@@ -5619,22 +5618,22 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T30" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W30" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X30" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
@@ -5643,16 +5642,16 @@
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF30" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG30" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AH30" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
@@ -5676,24 +5675,24 @@
       <c r="AV30" s="7"/>
       <c r="AW30" s="7"/>
       <c r="BB30" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BF30" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN30" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:66" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="4">
         <v>202</v>
@@ -5708,19 +5707,19 @@
         <v>1881</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>57</v>
@@ -5733,22 +5732,22 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>57</v>
       </c>
       <c r="W31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X31" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="X31" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
@@ -5784,24 +5783,24 @@
       <c r="AV31" s="7"/>
       <c r="AW31" s="7"/>
       <c r="BB31" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BD31" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BE31" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BN31" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="4">
         <v>499</v>
@@ -5816,19 +5815,19 @@
         <v>1885</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>57</v>
@@ -5841,13 +5840,13 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T32" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V32" s="7" t="s">
         <v>57</v>
@@ -5856,7 +5855,7 @@
         <v>57</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
@@ -5892,18 +5891,18 @@
       <c r="AV32" s="7"/>
       <c r="AW32" s="7"/>
       <c r="BB32" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN32" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="4">
         <v>638</v>
@@ -5918,31 +5917,31 @@
         <v>1895</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -5963,10 +5962,10 @@
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF33" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG33" s="7" t="s">
         <v>57</v>
@@ -5996,24 +5995,24 @@
       <c r="AV33" s="7"/>
       <c r="AW33" s="7"/>
       <c r="AX33" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF33" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BF33" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="BG33" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BN33" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:66" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="4">
         <v>327</v>
@@ -6028,19 +6027,19 @@
         <v>1894</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>57</v>
@@ -6067,10 +6066,10 @@
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF34" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG34" s="7" t="s">
         <v>57</v>
@@ -6079,7 +6078,7 @@
         <v>57</v>
       </c>
       <c r="AI34" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AJ34" s="7" t="s">
         <v>57</v>
@@ -6097,7 +6096,7 @@
         <v>57</v>
       </c>
       <c r="AS34" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AT34" s="7" t="s">
         <v>57</v>
@@ -6106,24 +6105,24 @@
       <c r="AV34" s="7"/>
       <c r="AW34" s="7"/>
       <c r="BF34" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BH34" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BI34" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BN34" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:66" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -6136,31 +6135,31 @@
         <v>1898</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>57</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
@@ -6202,18 +6201,18 @@
       <c r="AV35" s="7"/>
       <c r="AW35" s="7"/>
       <c r="AX35" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY35" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN35" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:66" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="4">
         <v>47</v>
@@ -6228,13 +6227,13 @@
         <v>1894</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>16</v>
@@ -6253,13 +6252,13 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T36" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U36" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V36" s="7" t="s">
         <v>57</v>
@@ -6268,16 +6267,16 @@
         <v>57</v>
       </c>
       <c r="X36" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y36" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z36" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AA36" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB36" s="7" t="s">
         <v>57</v>
@@ -6286,28 +6285,28 @@
         <v>57</v>
       </c>
       <c r="AD36" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AE36" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF36" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI36" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="AG36" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH36" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI36" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="AJ36" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK36" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL36" s="7"/>
       <c r="AM36" s="7"/>
@@ -6316,51 +6315,51 @@
       <c r="AP36" s="7"/>
       <c r="AQ36" s="7"/>
       <c r="AR36" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS36" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU36" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AV36" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AW36" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB36" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AT36" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU36" s="7" t="s">
+      <c r="BC36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BN36" s="8" t="s">
         <v>322</v>
-      </c>
-      <c r="AV36" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW36" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="BB36" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BD36" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BE36" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BF36" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BG36" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BH36" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BN36" s="8" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:66" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="4">
         <v>258</v>
@@ -6375,13 +6374,13 @@
         <v>1880</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>11</v>
@@ -6390,13 +6389,13 @@
         <v>19</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>57</v>
@@ -6406,22 +6405,22 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T37" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V37" s="7" t="s">
         <v>57</v>
       </c>
       <c r="W37" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X37" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="X37" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
@@ -6430,10 +6429,10 @@
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF37" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG37" s="7" t="s">
         <v>57</v>
@@ -6442,13 +6441,13 @@
         <v>57</v>
       </c>
       <c r="AI37" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AJ37" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK37" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL37" s="7"/>
       <c r="AM37" s="7"/>
@@ -6457,54 +6456,54 @@
       <c r="AP37" s="7"/>
       <c r="AQ37" s="7"/>
       <c r="AR37" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS37" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AT37" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AU37" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV37" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AW37" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX37" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY37" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB37" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC37" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF37" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AW37" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX37" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AY37" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="BB37" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="BC37" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="BF37" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="BG37" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BH37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BI37" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BN37" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -6517,19 +6516,19 @@
         <v>1890</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>57</v>
@@ -6556,10 +6555,10 @@
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF38" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG38" s="7" t="s">
         <v>57</v>
@@ -6589,18 +6588,18 @@
       <c r="AV38" s="7"/>
       <c r="AW38" s="7"/>
       <c r="BF38" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN38" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="14">
@@ -6613,13 +6612,13 @@
         <v>1890</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>11</v>
@@ -6628,13 +6627,13 @@
         <v>19</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>57</v>
@@ -6644,22 +6643,22 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T39" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W39" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X39" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="X39" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
@@ -6695,24 +6694,24 @@
       <c r="AV39" s="7"/>
       <c r="AW39" s="7"/>
       <c r="AX39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BC39" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AY39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BB39" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="BN39" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B40" s="21">
         <v>224</v>
@@ -6727,19 +6726,19 @@
         <v>1885</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G40" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>57</v>
@@ -6752,40 +6751,40 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T40" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V40" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W40" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X40" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y40" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z40" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AA40" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AB40" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AC40" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD40" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AE40" s="7" t="s">
         <v>57</v>
@@ -6815,24 +6814,24 @@
       <c r="AV40" s="7"/>
       <c r="AW40" s="7"/>
       <c r="BB40" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BC40" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BD40" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BE40" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BN40" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:66" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B41" s="4">
         <v>147</v>
@@ -6847,13 +6846,13 @@
         <v>1910</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>11</v>
@@ -6889,13 +6888,13 @@
         <v>57</v>
       </c>
       <c r="AF41" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG41" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AH41" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI41" s="7"/>
       <c r="AJ41" s="7"/>
@@ -6919,18 +6918,18 @@
       <c r="AV41" s="7"/>
       <c r="AW41" s="7"/>
       <c r="BF41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BN41" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" s="4">
         <v>301</v>
@@ -6945,31 +6944,31 @@
         <v>1910</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G42" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>57</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
@@ -6990,16 +6989,16 @@
       <c r="AC42" s="7"/>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF42" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG42" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AH42" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
@@ -7023,24 +7022,24 @@
       <c r="AV42" s="7"/>
       <c r="AW42" s="7"/>
       <c r="AX42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY42" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AY42" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="BF42" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BG42" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN42" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:66" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" s="4">
         <v>313</v>
@@ -7055,19 +7054,19 @@
         <v>1914</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>57</v>
@@ -7094,10 +7093,10 @@
       <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
       <c r="AE43" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF43" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG43" s="7" t="s">
         <v>57</v>
@@ -7127,18 +7126,18 @@
       <c r="AV43" s="7"/>
       <c r="AW43" s="7"/>
       <c r="BF43" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BG43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN43" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:66" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B44" s="4">
         <v>451</v>
@@ -7153,44 +7152,44 @@
         <v>1914</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T44" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U44" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V44" s="7" t="s">
         <v>57</v>
@@ -7208,105 +7207,105 @@
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF44" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI44" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="AJ44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL44" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO44" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="AP44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS44" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AF44" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="AG44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI44" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="AJ44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL44" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="AM44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO44" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="AP44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR44" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS44" s="7" t="s">
+      <c r="AT44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU44" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV44" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AW44" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX44" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY44" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB44" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AT44" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU44" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV44" s="8" t="s">
+      <c r="BC44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF44" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AW44" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AX44" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AY44" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="BB44" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BF44" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="BG44" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BH44" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BI44" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BJ44" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BK44" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BL44" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BM44" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BN44" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:66" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="4">
         <v>215</v>
@@ -7321,19 +7320,19 @@
         <v>1903</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>57</v>
@@ -7346,22 +7345,22 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T45" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="U45" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="U45" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="V45" s="7" t="s">
         <v>57</v>
       </c>
       <c r="W45" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X45" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="X45" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
@@ -7370,19 +7369,19 @@
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF45" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG45" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AH45" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI45" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AJ45" s="7" t="s">
         <v>57</v>
@@ -7397,48 +7396,48 @@
       <c r="AP45" s="7"/>
       <c r="AQ45" s="7"/>
       <c r="AR45" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS45" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AT45" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AU45" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AV45" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AW45" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BG45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AW45" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="BB45" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BF45" s="1" t="s">
+      <c r="BI45" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BG45" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BH45" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BI45" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="BN45" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:66" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -7451,13 +7450,13 @@
         <v>1915</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>11</v>
@@ -7490,13 +7489,13 @@
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF46" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG46" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AH46" s="7" t="s">
         <v>57</v>
@@ -7523,18 +7522,18 @@
       <c r="AV46" s="7"/>
       <c r="AW46" s="7"/>
       <c r="BF46" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BG46" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN46" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:66" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47" s="4">
         <v>208</v>
@@ -7549,13 +7548,13 @@
         <v>1909</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G47" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>16</v>
@@ -7564,7 +7563,7 @@
         <v>19</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
@@ -7574,22 +7573,22 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T47" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V47" s="7" t="s">
         <v>57</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X47" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
@@ -7625,13 +7624,13 @@
       <c r="AV47" s="7"/>
       <c r="AW47" s="7"/>
       <c r="BB47" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BC47" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN47" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.3">
